--- a/Document/06班＿Axis＿絵コンテ.xlsx
+++ b/Document/06班＿Axis＿絵コンテ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,6 +169,123 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="下矢印 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7080250" y="8629650"/>
+          <a:ext cx="107950" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6908800" y="9404350"/>
+          <a:ext cx="571500" cy="374650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>55s</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -439,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -456,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/Document/06班＿Axis＿絵コンテ.xlsx
+++ b/Document/06班＿Axis＿絵コンテ.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,9 +19,620 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DIALOGUE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PICTURE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CUT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>顔を上げると、銃が視界に入る。
+ここで少し止まる。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更に上げると部屋の隅にあるカメラに気付き、そちらを向く</t>
+    <rPh sb="0" eb="1">
+      <t>サラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キヅ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モニターの画面に切り替わり、男（プレイヤー）が映る。
+フェードアウト</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「あなたは新型デバイス”アポーツ・ガン”のテスターに選ばれました。</t>
+    <rPh sb="5" eb="7">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性能をフルに活かして脱出を目指してください」</t>
+    <rPh sb="0" eb="2">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アポーツ・ガンの能力は…</t>
+    <rPh sb="9" eb="11">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字と２つの画面を表示
+（一時停止した映像）
+文字はセリフを言い終えた後に消す</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目が覚めた男（プレイヤー）の視点で始まる。（明転）</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右から画面がフェードイン
+取得タイプが変わる様子を映像で表示
+フェードアウトではなく、映像をぼかして次のシーンの背景にする。
+（ぼかしても映像は流し続ける）</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">物理的挙動をするブロックがあるステージを右上。（下からフェードイン）
+スイッチで動作するブロックのあるステージを左下に表示。（上からフェードイン）
+（どちらもプレイ動画）
+右上は左、左下の映像は右にフェードアウトする。
+</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を排除する映像を左上。（右からフェードイン）
+レーザーを攻略する映像を右下に表示。（左からフェードイン）
+（どちらもプレイ動画）
+左上は下、右下は上にフェードアウトする。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴを表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「モードを切り替えて自在に操り、ステージを攻略してください」</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジザイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アヤツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「言い忘れていましたが、ステージにはいくつかの仕掛けをご用意しました。</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻略には発想力と空間を把握する能力が、何よりも必要とされます」</t>
+    <rPh sb="0" eb="2">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「説明は以上となります。それではテスターとして、頑張ってください」</t>
+    <rPh sb="1" eb="3">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3つ前のシーンでぼかした映像を鮮明な映像に戻す。
+このタイミングで丁度ゴールするように調整する。
+（ぼかしている間に倍速等で）
+ステージクリアと同じ演出でワープフェードアウト
+（セリフを言いきるのと同じタイミング）</t>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センメイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チョウド</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バイソク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１４ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１９ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３０ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３７ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４５ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５３ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５９ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１９ｓ
+２３ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+…数値を
+…移すこと」</t>
+    <rPh sb="4" eb="6">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値がうつるところを映像で表示（位置と大きさ）
+左、右の順番に映像を動かす
+（セリフに合わせて）
+文字は霧のように消え、左の画面は上、右の画面は下に動きフェードアウト</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,16 +647,57 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="24"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color indexed="24"/>
+      <name val="HGSｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -53,15 +705,306 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="24"/>
+      </left>
+      <right style="thick">
+        <color indexed="24"/>
+      </right>
+      <top style="thick">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -80,25 +1023,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9202</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>18408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2438767</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -106,14 +1049,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="11741" t="57590" r="2405" b="11604"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-596900" y="1485900"/>
-          <a:ext cx="10058400" cy="7543800"/>
+          <a:off x="-2958733" y="4909749"/>
+          <a:ext cx="9966739" cy="2429565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -127,88 +1069,44 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>305904</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1152568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="-596900" y="1485900"/>
-          <a:ext cx="10058400" cy="7543800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1180180</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1677134</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="下矢印 2"/>
+        <xdr:cNvPr id="18" name="上矢印 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7080250" y="8629650"/>
-          <a:ext cx="107950" cy="660400"/>
+        <a:xfrm rot="5400000">
+          <a:off x="1281411" y="8091554"/>
+          <a:ext cx="524566" cy="874276"/>
         </a:xfrm>
-        <a:prstGeom prst="downArrow">
+        <a:prstGeom prst="upArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="accent5">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent5"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -227,62 +1125,679 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428486</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>953052</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>943848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="11" name="上矢印 10"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6908800" y="9404350"/>
-          <a:ext cx="571500" cy="374650"/>
+        <a:xfrm rot="10800000">
+          <a:off x="1229138" y="5186384"/>
+          <a:ext cx="524566" cy="874276"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64420</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>147247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1969420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9533" t="57071" r="56708" b="11784"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13804" y="1854385"/>
+          <a:ext cx="3994057" cy="2475580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>73621</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2438767</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="61649" t="57856" r="4592" b="11231"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13803" y="9884468"/>
+          <a:ext cx="3994057" cy="2457175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1260797</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2420362</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>892681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2061449" y="5153623"/>
+          <a:ext cx="1159565" cy="855870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>55s</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>78777</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1238342</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>916241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="879429" y="7174212"/>
+          <a:ext cx="1159565" cy="855870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1004220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1225090</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1860090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866177" y="6121032"/>
+          <a:ext cx="1159565" cy="855870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1248649</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1009374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2408214</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1865244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2049301" y="8123215"/>
+          <a:ext cx="1159565" cy="855870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1601304</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1003115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2125870</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1877391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="上矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2401956" y="6119927"/>
+          <a:ext cx="524566" cy="874276"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198414</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>226022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1072690</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>750588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="上矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1173921" y="5167979"/>
+          <a:ext cx="524566" cy="874276"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1482770</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1234290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2357046</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1758856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="上矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2458277" y="6176247"/>
+          <a:ext cx="524566" cy="874276"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396828</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1031826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>921394</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1906102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="上矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1197480" y="8145667"/>
+          <a:ext cx="524566" cy="874276"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1395895</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>227124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2270171</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>751690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="上矢印 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2371402" y="7166110"/>
+          <a:ext cx="524566" cy="874276"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1662779</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1994081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2187345</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>871328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="上矢印 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2463431" y="7110893"/>
+          <a:ext cx="524566" cy="874276"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -554,33 +2069,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A9" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="0.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="1.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.4140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="K6" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="K8" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="K10" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="0.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="1.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.4140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="K6" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="K7" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="K8" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="K9" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="K10" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="157.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="K11" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>